--- a/Files/Table field final.xlsx
+++ b/Files/Table field final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unavarra-my.sharepoint.com/personal/javier_buezo_unavarra_es/Documents/DeWood Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\DeWood GitHub\DeWood\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{F08B1928-127E-4845-A436-D2E82D1A2DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{44835D95-0223-40DB-9263-A3AC506C564B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2110FC-CCD4-46B9-9DFA-42BEDADC5D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F511985D-32D3-498F-927E-7D7736DBB27E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F511985D-32D3-498F-927E-7D7736DBB27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="800">
   <si>
     <t>LABEL</t>
   </si>
@@ -2420,9 +2420,6 @@
   </si>
   <si>
     <t>Water percentage</t>
-  </si>
-  <si>
-    <t>Obsrvations</t>
   </si>
   <si>
     <t>Hole in the center</t>
@@ -2844,9 +2841,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2866,6 +2860,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2895,7 +2892,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3193,17 +3190,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06580FE9-F881-4EC4-994F-359DB749C37C}">
   <dimension ref="A1:AD783"/>
   <sheetViews>
-    <sheetView topLeftCell="A756" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A573" sqref="A573:A782"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="N1:AD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3241,10 +3238,10 @@
         <v>793</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3284,7 +3281,7 @@
         <v>36.667470751417198</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3330,7 +3327,7 @@
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3369,11 +3366,8 @@
         <f t="shared" si="0"/>
         <v>38.310089598753407</v>
       </c>
-      <c r="Y4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3412,20 +3406,8 @@
         <f t="shared" si="0"/>
         <v>34.720977879640245</v>
       </c>
-      <c r="N5">
-        <f>COUNTBLANK(I2:I779)</f>
-        <v>49</v>
-      </c>
-      <c r="AB5">
-        <f>COUNT(A:A)</f>
-        <v>780</v>
-      </c>
-      <c r="AC5">
-        <f>AB6/AB5</f>
-        <v>0.93846153846153846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3464,12 +3446,8 @@
         <f t="shared" si="0"/>
         <v>36.066604995374654</v>
       </c>
-      <c r="AB6">
-        <f>COUNT(I:I)</f>
-        <v>732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3509,7 +3487,7 @@
         <v>53.383851778880775</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>37</v>
       </c>
@@ -3549,7 +3527,7 @@
         <v>37.452665075576768</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>38</v>
       </c>
@@ -3589,7 +3567,7 @@
         <v>38.905092180923596</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>39</v>
       </c>
@@ -3629,7 +3607,7 @@
         <v>48.36401994629842</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40</v>
       </c>
@@ -3669,7 +3647,7 @@
         <v>34.437597602667466</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>41</v>
       </c>
@@ -3709,7 +3687,7 @@
         <v>34.272449927046026</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42</v>
       </c>
@@ -3749,7 +3727,7 @@
         <v>51.238628045592385</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>73</v>
       </c>
@@ -3789,7 +3767,7 @@
         <v>27.764390896921014</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>74</v>
       </c>
@@ -3829,7 +3807,7 @@
         <v>39.922176048356626</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>75</v>
       </c>
@@ -3869,7 +3847,7 @@
         <v>46.113202963682745</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>76</v>
       </c>
@@ -3909,7 +3887,7 @@
         <v>40.923922577627039</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>77</v>
       </c>
@@ -3949,7 +3927,7 @@
         <v>34.768545834897822</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>78</v>
       </c>
@@ -3989,7 +3967,7 @@
         <v>36.763940117162072</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>109</v>
       </c>
@@ -4029,7 +4007,7 @@
         <v>31.329906652487299</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>110</v>
       </c>
@@ -4069,7 +4047,7 @@
         <v>37.481815670748546</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>111</v>
       </c>
@@ -4109,7 +4087,7 @@
         <v>50.819622181596593</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>112</v>
       </c>
@@ -4149,7 +4127,7 @@
         <v>33.214482320558965</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>113</v>
       </c>
@@ -4189,7 +4167,7 @@
         <v>31.658447302862374</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>114</v>
       </c>
@@ -4229,7 +4207,7 @@
         <v>70.689224262232045</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>121</v>
       </c>
@@ -4269,7 +4247,7 @@
         <v>33.652285027059534</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>122</v>
       </c>
@@ -4309,7 +4287,7 @@
         <v>39.532880177047112</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>123</v>
       </c>
@@ -4349,7 +4327,7 @@
         <v>50.414030414030407</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>124</v>
       </c>
@@ -4389,7 +4367,7 @@
         <v>39.500792012672207</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>125</v>
       </c>
@@ -4429,7 +4407,7 @@
         <v>36.614831601156524</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>126</v>
       </c>
@@ -4469,7 +4447,7 @@
         <v>72.201703662252072</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>134</v>
       </c>
@@ -4509,7 +4487,7 @@
         <v>46.115306961788676</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>135</v>
       </c>
@@ -4549,7 +4527,7 @@
         <v>41.501528368001189</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>136</v>
       </c>
@@ -4589,7 +4567,7 @@
         <v>59.795749378967713</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>137</v>
       </c>
@@ -4629,7 +4607,7 @@
         <v>39.366911507520108</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>138</v>
       </c>
@@ -4669,7 +4647,7 @@
         <v>35.219029674988228</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>139</v>
       </c>
@@ -4709,7 +4687,7 @@
         <v>61.291679182937827</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>146</v>
       </c>
@@ -4748,12 +4726,8 @@
         <f t="shared" si="0"/>
         <v>38.768825301204821</v>
       </c>
-      <c r="P38">
-        <f>MAX(G92:G211)</f>
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>147</v>
       </c>
@@ -4793,7 +4767,7 @@
         <v>37.961839964502296</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>148</v>
       </c>
@@ -4833,7 +4807,7 @@
         <v>45.96963620739043</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>149</v>
       </c>
@@ -4873,7 +4847,7 @@
         <v>41.800185356811859</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>150</v>
       </c>
@@ -4913,7 +4887,7 @@
         <v>35.573819263666792</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>151</v>
       </c>
@@ -4953,7 +4927,7 @@
         <v>39.491759506491114</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>158</v>
       </c>
@@ -4993,7 +4967,7 @@
         <v>52.611082867310635</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>159</v>
       </c>
@@ -5033,7 +5007,7 @@
         <v>40.752207180694526</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>160</v>
       </c>
@@ -5073,7 +5047,7 @@
         <v>65.617866981503354</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>161</v>
       </c>
@@ -5113,7 +5087,7 @@
         <v>41.596201195919804</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>162</v>
       </c>
@@ -5153,7 +5127,7 @@
         <v>-507.93544048419636</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>163</v>
       </c>
@@ -5193,7 +5167,7 @@
         <v>62.787697160883283</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>170</v>
       </c>
@@ -5233,7 +5207,7 @@
         <v>36.862449799196781</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>171</v>
       </c>
@@ -5273,7 +5247,7 @@
         <v>38.655713940565356</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>172</v>
       </c>
@@ -5313,7 +5287,7 @@
         <v>37.452400662251648</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>173</v>
       </c>
@@ -5351,7 +5325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>174</v>
       </c>
@@ -5391,7 +5365,7 @@
         <v>37.644737840503836</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>175</v>
       </c>
@@ -5431,7 +5405,7 @@
         <v>61.642392717815355</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>182</v>
       </c>
@@ -5471,7 +5445,7 @@
         <v>38.699078086833183</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>183</v>
       </c>
@@ -5511,7 +5485,7 @@
         <v>33.884576098059242</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>184</v>
       </c>
@@ -5551,7 +5525,7 @@
         <v>69.448478181151458</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>185</v>
       </c>
@@ -5591,7 +5565,7 @@
         <v>42.850829096467621</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>186</v>
       </c>
@@ -5631,7 +5605,7 @@
         <v>39.747326955543052</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>187</v>
       </c>
@@ -5671,7 +5645,7 @@
         <v>57.939708265802267</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>324</v>
       </c>
@@ -5711,7 +5685,7 @@
         <v>43.777160322311751</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>325</v>
       </c>
@@ -5751,7 +5725,7 @@
         <v>40.843574161602518</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>326</v>
       </c>
@@ -5791,7 +5765,7 @@
         <v>60.03261948659766</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>327</v>
       </c>
@@ -5831,7 +5805,7 @@
         <v>36.155969634230502</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>328</v>
       </c>
@@ -5871,7 +5845,7 @@
         <v>36.337448559670776</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>329</v>
       </c>
@@ -5911,7 +5885,7 @@
         <v>71.909045753076882</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>342</v>
       </c>
@@ -5951,7 +5925,7 @@
         <v>45.980978841632826</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>343</v>
       </c>
@@ -5991,7 +5965,7 @@
         <v>40.061507771590058</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>344</v>
       </c>
@@ -6031,7 +6005,7 @@
         <v>45.948115402512798</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>345</v>
       </c>
@@ -6071,7 +6045,7 @@
         <v>38.337009263343631</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>346</v>
       </c>
@@ -6111,7 +6085,7 @@
         <v>34.70339772656687</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>347</v>
       </c>
@@ -6151,7 +6125,7 @@
         <v>53.885889273914103</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>360</v>
       </c>
@@ -6191,7 +6165,7 @@
         <v>41.80491417617845</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>361</v>
       </c>
@@ -6231,7 +6205,7 @@
         <v>34.654596316730135</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>362</v>
       </c>
@@ -6271,7 +6245,7 @@
         <v>53.881897386253627</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>363</v>
       </c>
@@ -6311,7 +6285,7 @@
         <v>41.972632521260955</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>364</v>
       </c>
@@ -6349,7 +6323,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>365</v>
       </c>
@@ -6389,7 +6363,7 @@
         <v>68.525983643505711</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>378</v>
       </c>
@@ -6429,7 +6403,7 @@
         <v>45.247502937720327</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>379</v>
       </c>
@@ -6469,7 +6443,7 @@
         <v>36.402842331069003</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>380</v>
       </c>
@@ -6509,7 +6483,7 @@
         <v>45.194249649368871</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>381</v>
       </c>
@@ -6549,7 +6523,7 @@
         <v>40.972543352601157</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>382</v>
       </c>
@@ -6589,7 +6563,7 @@
         <v>38.664580296664667</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>383</v>
       </c>
@@ -6629,7 +6603,7 @@
         <v>71.598915989159892</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>396</v>
       </c>
@@ -6669,7 +6643,7 @@
         <v>45.692672916750496</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>397</v>
       </c>
@@ -6709,7 +6683,7 @@
         <v>39.29992250064582</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>398</v>
       </c>
@@ -6749,7 +6723,7 @@
         <v>63.062805386723873</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>399</v>
       </c>
@@ -6789,7 +6763,7 @@
         <v>38.034856383522431</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>400</v>
       </c>
@@ -6829,7 +6803,7 @@
         <v>31.602120141342755</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>401</v>
       </c>
@@ -6869,7 +6843,7 @@
         <v>45.513017356475302</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>7</v>
       </c>
@@ -6909,7 +6883,7 @@
         <v>93.547190328461312</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>8</v>
       </c>
@@ -6949,7 +6923,7 @@
         <v>23.067542213883669</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>9</v>
       </c>
@@ -6989,7 +6963,7 @@
         <v>29.863784424045008</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>133</v>
       </c>
@@ -7029,7 +7003,7 @@
         <v>38.944751381215461</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>11</v>
       </c>
@@ -7069,7 +7043,7 @@
         <v>27.690117934119563</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>12</v>
       </c>
@@ -7109,7 +7083,7 @@
         <v>77.056414075591135</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43</v>
       </c>
@@ -7149,7 +7123,7 @@
         <v>21.808233454924437</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44</v>
       </c>
@@ -7189,7 +7163,7 @@
         <v>29.055897298742977</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45</v>
       </c>
@@ -7229,7 +7203,7 @@
         <v>28.6669741697417</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>46</v>
       </c>
@@ -7269,7 +7243,7 @@
         <v>39.090403337969406</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>47</v>
       </c>
@@ -7309,7 +7283,7 @@
         <v>29.654395191585277</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>48</v>
       </c>
@@ -7349,7 +7323,7 @@
         <v>65.176345796870862</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>79</v>
       </c>
@@ -7389,7 +7363,7 @@
         <v>34.026143790849673</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>80</v>
       </c>
@@ -7429,7 +7403,7 @@
         <v>19.416718652526509</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>81</v>
       </c>
@@ -7469,7 +7443,7 @@
         <v>56.278498772360578</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>82</v>
       </c>
@@ -7509,7 +7483,7 @@
         <v>39.203708753749652</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>83</v>
       </c>
@@ -7549,7 +7523,7 @@
         <v>35.441259134345145</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>84</v>
       </c>
@@ -7589,7 +7563,7 @@
         <v>55.673284843719287</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>115</v>
       </c>
@@ -7629,7 +7603,7 @@
         <v>36.780864842281183</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>116</v>
       </c>
@@ -7669,7 +7643,7 @@
         <v>19.688359303391383</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>117</v>
       </c>
@@ -7709,7 +7683,7 @@
         <v>52.542201215395004</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>118</v>
       </c>
@@ -7749,7 +7723,7 @@
         <v>34.16687865683032</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>119</v>
       </c>
@@ -7789,7 +7763,7 @@
         <v>23.43607882769075</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>120</v>
       </c>
@@ -7829,7 +7803,7 @@
         <v>57.064567556795545</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>127</v>
       </c>
@@ -7869,7 +7843,7 @@
         <v>37.36898395721925</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>128</v>
       </c>
@@ -7909,7 +7883,7 @@
         <v>21.465982028241338</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>129</v>
       </c>
@@ -7949,7 +7923,7 @@
         <v>46.782771535580522</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>130</v>
       </c>
@@ -7989,7 +7963,7 @@
         <v>33.266773162939302</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>131</v>
       </c>
@@ -8029,7 +8003,7 @@
         <v>26.838074398249447</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>132</v>
       </c>
@@ -8069,7 +8043,7 @@
         <v>57.901520158625253</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>140</v>
       </c>
@@ -8109,7 +8083,7 @@
         <v>42.48288360853806</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>141</v>
       </c>
@@ -8149,7 +8123,7 @@
         <v>26.830955469087765</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>142</v>
       </c>
@@ -8189,7 +8163,7 @@
         <v>53.055555555555557</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>143</v>
       </c>
@@ -8229,7 +8203,7 @@
         <v>36.131191432396257</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>144</v>
       </c>
@@ -8269,7 +8243,7 @@
         <v>35.064139941690961</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>145</v>
       </c>
@@ -8309,7 +8283,7 @@
         <v>44.651058081945067</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>152</v>
       </c>
@@ -8349,7 +8323,7 @@
         <v>45.575447570332486</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>153</v>
       </c>
@@ -8389,7 +8363,7 @@
         <v>26.159464394400494</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>154</v>
       </c>
@@ -8429,7 +8403,7 @@
         <v>36.635373638753279</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>155</v>
       </c>
@@ -8469,7 +8443,7 @@
         <v>34.720496894409941</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>156</v>
       </c>
@@ -8509,7 +8483,7 @@
         <v>39.652412531442955</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>157</v>
       </c>
@@ -8549,7 +8523,7 @@
         <v>31.819526627218924</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>164</v>
       </c>
@@ -8589,7 +8563,7 @@
         <v>89.106278026905827</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>165</v>
       </c>
@@ -8629,7 +8603,7 @@
         <v>27.408940397350989</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>166</v>
       </c>
@@ -8669,7 +8643,7 @@
         <v>60.446847582126097</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>167</v>
       </c>
@@ -8709,7 +8683,7 @@
         <v>35.864507299270066</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>168</v>
       </c>
@@ -8749,7 +8723,7 @@
         <v>24.126349460215916</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>169</v>
       </c>
@@ -8789,7 +8763,7 @@
         <v>51.385789782736346</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>176</v>
       </c>
@@ -8829,7 +8803,7 @@
         <v>35.994075049374594</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>177</v>
       </c>
@@ -8867,7 +8841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>178</v>
       </c>
@@ -8907,7 +8881,7 @@
         <v>53.143208863356584</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>179</v>
       </c>
@@ -8945,7 +8919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>180</v>
       </c>
@@ -8985,7 +8959,7 @@
         <v>26.352234125947209</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>181</v>
       </c>
@@ -9025,7 +8999,7 @@
         <v>46.899316899316901</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>188</v>
       </c>
@@ -9065,7 +9039,7 @@
         <v>46.633686148182235</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>189</v>
       </c>
@@ -9105,7 +9079,7 @@
         <v>28.785714285714281</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>190</v>
       </c>
@@ -9145,7 +9119,7 @@
         <v>75.399728997289969</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>191</v>
       </c>
@@ -9185,7 +9159,7 @@
         <v>37.083645443196005</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>192</v>
       </c>
@@ -9225,7 +9199,7 @@
         <v>25.761986301369866</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>193</v>
       </c>
@@ -9265,7 +9239,7 @@
         <v>57.418850215095816</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>330</v>
       </c>
@@ -9305,7 +9279,7 @@
         <v>41.005646679214834</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>332</v>
       </c>
@@ -9343,7 +9317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>334</v>
       </c>
@@ -9383,7 +9357,7 @@
         <v>37.317480183562786</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>336</v>
       </c>
@@ -9423,7 +9397,7 @@
         <v>36.337073398784476</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>338</v>
       </c>
@@ -9463,7 +9437,7 @@
         <v>34.533258803801004</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>340</v>
       </c>
@@ -9501,7 +9475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>348</v>
       </c>
@@ -9541,7 +9515,7 @@
         <v>43.44736842105263</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>350</v>
       </c>
@@ -9581,7 +9555,7 @@
         <v>24.268759571209799</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>352</v>
       </c>
@@ -9621,7 +9595,7 @@
         <v>45.525714285714287</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>354</v>
       </c>
@@ -9661,7 +9635,7 @@
         <v>41.015367727771675</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>356</v>
       </c>
@@ -9701,7 +9675,7 @@
         <v>27.179207560886955</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>358</v>
       </c>
@@ -9741,10 +9715,10 @@
         <v>63.850871530019369</v>
       </c>
       <c r="M163" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>366</v>
       </c>
@@ -9782,7 +9756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>368</v>
       </c>
@@ -9822,7 +9796,7 @@
         <v>26.110788863109047</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>370</v>
       </c>
@@ -9862,7 +9836,7 @@
         <v>53.167965981573353</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>372</v>
       </c>
@@ -9902,7 +9876,7 @@
         <v>37.679118187385185</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>374</v>
       </c>
@@ -9942,7 +9916,7 @@
         <v>31.996951219512194</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>376</v>
       </c>
@@ -9980,7 +9954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>384</v>
       </c>
@@ -10020,7 +9994,7 @@
         <v>54.635879218472475</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>386</v>
       </c>
@@ -10060,7 +10034,7 @@
         <v>37.08669108669109</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>388</v>
       </c>
@@ -10100,7 +10074,7 @@
         <v>37.733199598796389</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>390</v>
       </c>
@@ -10140,7 +10114,7 @@
         <v>37.81494057724958</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>392</v>
       </c>
@@ -10180,7 +10154,7 @@
         <v>29.437280187573272</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>394</v>
       </c>
@@ -10220,7 +10194,7 @@
         <v>61.653816499614486</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>402</v>
       </c>
@@ -10260,7 +10234,7 @@
         <v>42.584956955142722</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>404</v>
       </c>
@@ -10300,7 +10274,7 @@
         <v>26.228165938864624</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>406</v>
       </c>
@@ -10340,7 +10314,7 @@
         <v>46.012658227848107</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>408</v>
       </c>
@@ -10380,7 +10354,7 @@
         <v>40.09852216748768</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>410</v>
       </c>
@@ -10420,7 +10394,7 @@
         <v>34.648837209302329</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>412</v>
       </c>
@@ -10460,7 +10434,7 @@
         <v>59.582309582309591</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>331</v>
       </c>
@@ -10500,7 +10474,7 @@
         <v>42.234878240377064</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>333</v>
       </c>
@@ -10540,7 +10514,7 @@
         <v>26.233603997501564</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>335</v>
       </c>
@@ -10578,7 +10552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>337</v>
       </c>
@@ -10618,7 +10592,7 @@
         <v>41.590124309392266</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>339</v>
       </c>
@@ -10656,7 +10630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>341</v>
       </c>
@@ -10696,7 +10670,7 @@
         <v>45.108029667849088</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>349</v>
       </c>
@@ -10736,7 +10710,7 @@
         <v>40.244311377245509</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>351</v>
       </c>
@@ -10776,7 +10750,7 @@
         <v>27.344720496894404</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>353</v>
       </c>
@@ -10816,7 +10790,7 @@
         <v>48.684636118598384</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>355</v>
       </c>
@@ -10854,7 +10828,7 @@
         <v>37.277015437392791</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>357</v>
       </c>
@@ -10892,7 +10866,7 @@
         <v>29.010663507109008</v>
       </c>
     </row>
-    <row r="193" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="31">
         <v>359</v>
       </c>
@@ -10930,7 +10904,7 @@
         <v>96.530493142690403</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>367</v>
       </c>
@@ -10970,7 +10944,7 @@
         <v>39.079657965796571</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>369</v>
       </c>
@@ -11010,7 +10984,7 @@
         <v>92.766261615439589</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>371</v>
       </c>
@@ -11050,7 +11024,7 @@
         <v>45.184590690208672</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>373</v>
       </c>
@@ -11090,7 +11064,7 @@
         <v>41.833088595203137</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>375</v>
       </c>
@@ -11130,7 +11104,7 @@
         <v>34.663958641063516</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>377</v>
       </c>
@@ -11170,7 +11144,7 @@
         <v>65.352309846010272</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>385</v>
       </c>
@@ -11210,7 +11184,7 @@
         <v>43.333333333333329</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>387</v>
       </c>
@@ -11250,7 +11224,7 @@
         <v>37.367449221841213</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>389</v>
       </c>
@@ -11290,7 +11264,7 @@
         <v>49.615384615384613</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>391</v>
       </c>
@@ -11330,7 +11304,7 @@
         <v>37.916246215943488</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>393</v>
       </c>
@@ -11370,7 +11344,7 @@
         <v>27.8272884283247</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>395</v>
       </c>
@@ -11410,7 +11384,7 @@
         <v>45.568487018800361</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>403</v>
       </c>
@@ -11450,7 +11424,7 @@
         <v>37.49779541446209</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>405</v>
       </c>
@@ -11490,7 +11464,7 @@
         <v>24.733110925771477</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>407</v>
       </c>
@@ -11530,7 +11504,7 @@
         <v>41.705908485117725</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>409</v>
       </c>
@@ -11570,7 +11544,7 @@
         <v>41.042731072921505</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>411</v>
       </c>
@@ -11610,7 +11584,7 @@
         <v>27.922971114167815</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>413</v>
       </c>
@@ -11650,7 +11624,7 @@
         <v>71.162952646239546</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>13</v>
       </c>
@@ -11690,7 +11664,7 @@
         <v>17.780580075662044</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>17</v>
       </c>
@@ -11730,7 +11704,7 @@
         <v>13.530135301353019</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>33</v>
       </c>
@@ -11770,7 +11744,7 @@
         <v>10.370370370370379</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>21</v>
       </c>
@@ -11810,7 +11784,7 @@
         <v>29.887218045112785</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>25</v>
       </c>
@@ -11850,7 +11824,7 @@
         <v>14.740190880169679</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>29</v>
       </c>
@@ -11890,7 +11864,7 @@
         <v>10.841283607979186</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>49</v>
       </c>
@@ -11930,7 +11904,7 @@
         <v>17.315436241610737</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>53</v>
       </c>
@@ -11970,7 +11944,7 @@
         <v>12.367491166077736</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>57</v>
       </c>
@@ -12010,7 +11984,7 @@
         <v>11.420612813370466</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>61</v>
       </c>
@@ -12050,7 +12024,7 @@
         <v>29.727626459143973</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>65</v>
       </c>
@@ -12090,7 +12064,7 @@
         <v>14.844533600802409</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>69</v>
       </c>
@@ -12130,7 +12104,7 @@
         <v>10.731707317073171</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>97</v>
       </c>
@@ -12170,7 +12144,7 @@
         <v>16.68404588112617</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>101</v>
       </c>
@@ -12208,7 +12182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>105</v>
       </c>
@@ -12246,7 +12220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>85</v>
       </c>
@@ -12286,7 +12260,7 @@
         <v>27.917620137299775</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>89</v>
       </c>
@@ -12326,7 +12300,7 @@
         <v>11.277602523659304</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>93</v>
       </c>
@@ -12366,7 +12340,7 @@
         <v>11.581920903954806</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>200</v>
       </c>
@@ -12406,7 +12380,7 @@
         <v>32.313575525812624</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>209</v>
       </c>
@@ -12446,7 +12420,7 @@
         <v>25.633383010432187</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>567</v>
       </c>
@@ -12486,7 +12460,7 @@
         <v>31.524249422632799</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>210</v>
       </c>
@@ -12526,7 +12500,7 @@
         <v>32.408759124087588</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>574</v>
       </c>
@@ -12566,7 +12540,7 @@
         <v>42.270742358078593</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>580</v>
       </c>
@@ -12606,7 +12580,7 @@
         <v>20.728291316526615</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>204</v>
       </c>
@@ -12646,7 +12620,7 @@
         <v>33.372228704784135</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>564</v>
       </c>
@@ -12686,7 +12660,7 @@
         <v>38.13694267515924</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>583</v>
       </c>
@@ -12724,7 +12698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>584</v>
       </c>
@@ -12762,7 +12736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="240" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>586</v>
       </c>
@@ -12800,7 +12774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>585</v>
       </c>
@@ -12838,7 +12812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>208</v>
       </c>
@@ -12878,7 +12852,7 @@
         <v>33.481481481481481</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>232</v>
       </c>
@@ -12918,7 +12892,7 @@
         <v>39.747899159663866</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>236</v>
       </c>
@@ -12958,7 +12932,7 @@
         <v>39.863945578231288</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>240</v>
       </c>
@@ -12998,7 +12972,7 @@
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>244</v>
       </c>
@@ -13036,7 +13010,7 @@
         <v>80.25316455696202</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>248</v>
       </c>
@@ -13076,7 +13050,7 @@
         <v>36.902800658978585</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>194</v>
       </c>
@@ -13116,7 +13090,7 @@
         <v>28.860028860028862</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>198</v>
       </c>
@@ -13156,7 +13130,7 @@
         <v>22.236024844720507</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>213</v>
       </c>
@@ -13196,7 +13170,7 @@
         <v>36.617405582922821</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>217</v>
       </c>
@@ -13236,7 +13210,7 @@
         <v>32.639791937581279</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>221</v>
       </c>
@@ -13276,7 +13250,7 @@
         <v>34.888888888888886</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>226</v>
       </c>
@@ -13316,7 +13290,7 @@
         <v>32.926829268292678</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -13356,7 +13330,7 @@
         <v>31.508515815085165</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>256</v>
       </c>
@@ -13396,7 +13370,7 @@
         <v>26.395348837209298</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>260</v>
       </c>
@@ -13436,7 +13410,7 @@
         <v>48.192771084337352</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>264</v>
       </c>
@@ -13476,7 +13450,7 @@
         <v>36.632083000798076</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>268</v>
       </c>
@@ -13516,7 +13490,7 @@
         <v>39.387539598732843</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>272</v>
       </c>
@@ -13556,7 +13530,7 @@
         <v>41.604278074866308</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>276</v>
       </c>
@@ -13596,7 +13570,7 @@
         <v>29.852320675105489</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>280</v>
       </c>
@@ -13634,7 +13608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>284</v>
       </c>
@@ -13672,7 +13646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>288</v>
       </c>
@@ -13710,7 +13684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>292</v>
       </c>
@@ -13750,7 +13724,7 @@
         <v>35.32934131736527</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>296</v>
       </c>
@@ -13790,7 +13764,7 @@
         <v>32.023411371237458</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>300</v>
       </c>
@@ -13830,7 +13804,7 @@
         <v>32.448733413751505</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>304</v>
       </c>
@@ -13870,7 +13844,7 @@
         <v>36.837944664031617</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>308</v>
       </c>
@@ -13910,7 +13884,7 @@
         <v>32.6086956521739</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>312</v>
       </c>
@@ -13950,7 +13924,7 @@
         <v>29.810568295114653</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>316</v>
       </c>
@@ -13990,7 +13964,7 @@
         <v>42.300556586270872</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>320</v>
       </c>
@@ -14030,7 +14004,7 @@
         <v>32.54847645429362</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>444</v>
       </c>
@@ -14070,7 +14044,7 @@
         <v>25.143678160919542</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>448</v>
       </c>
@@ -14110,7 +14084,7 @@
         <v>29.683698296836987</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>452</v>
       </c>
@@ -14150,7 +14124,7 @@
         <v>22.510231923601644</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>478</v>
       </c>
@@ -14190,7 +14164,7 @@
         <v>29.695431472081218</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>456</v>
       </c>
@@ -14230,7 +14204,7 @@
         <v>40.536277602523654</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>460</v>
       </c>
@@ -14270,7 +14244,7 @@
         <v>34.119782214156082</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>464</v>
       </c>
@@ -14310,7 +14284,7 @@
         <v>29.832369084705523</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>468</v>
       </c>
@@ -14350,7 +14324,7 @@
         <v>37.872340425531917</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>472</v>
       </c>
@@ -14390,7 +14364,7 @@
         <v>28.181939087644629</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>476</v>
       </c>
@@ -14430,7 +14404,7 @@
         <v>27.176492060594999</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>484</v>
       </c>
@@ -14470,7 +14444,7 @@
         <v>34.989551892268409</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>488</v>
       </c>
@@ -14510,7 +14484,7 @@
         <v>29.226901319924576</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>492</v>
       </c>
@@ -14548,7 +14522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>496</v>
       </c>
@@ -14588,7 +14562,7 @@
         <v>24.642411442833829</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>500</v>
       </c>
@@ -14628,7 +14602,7 @@
         <v>35.082674335010786</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>504</v>
       </c>
@@ -14668,7 +14642,7 @@
         <v>29.899856938483548</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>508</v>
       </c>
@@ -14708,7 +14682,7 @@
         <v>36.4450051060251</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>512</v>
       </c>
@@ -14748,7 +14722,7 @@
         <v>42.483798253029029</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>516</v>
       </c>
@@ -14788,7 +14762,7 @@
         <v>39.393939393939391</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>520</v>
       </c>
@@ -14828,7 +14802,7 @@
         <v>39.097577239386524</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>524</v>
       </c>
@@ -14868,7 +14842,7 @@
         <v>41.745226009185394</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>528</v>
       </c>
@@ -14908,7 +14882,7 @@
         <v>31.946006749156364</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>536</v>
       </c>
@@ -14948,7 +14922,7 @@
         <v>27.895370848390975</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>532</v>
       </c>
@@ -14988,7 +14962,7 @@
         <v>40.140845070422529</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>540</v>
       </c>
@@ -15028,7 +15002,7 @@
         <v>22.968750000000011</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>544</v>
       </c>
@@ -15068,7 +15042,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>548</v>
       </c>
@@ -15108,7 +15082,7 @@
         <v>24.663072776280327</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>552</v>
       </c>
@@ -15148,7 +15122,7 @@
         <v>35.800185013876039</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>556</v>
       </c>
@@ -15188,7 +15162,7 @@
         <v>35.772964899178497</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>560</v>
       </c>
@@ -15228,7 +15202,7 @@
         <v>34.720416124837463</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>14</v>
       </c>
@@ -15268,7 +15242,7 @@
         <v>17.013463892288858</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>18</v>
       </c>
@@ -15308,7 +15282,7 @@
         <v>11.831626848691688</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>34</v>
       </c>
@@ -15348,7 +15322,7 @@
         <v>9.9859353023909989</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>22</v>
       </c>
@@ -15388,7 +15362,7 @@
         <v>25.496183206106871</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>26</v>
       </c>
@@ -15428,7 +15402,7 @@
         <v>15.617977528089893</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>30</v>
       </c>
@@ -15468,7 +15442,7 @@
         <v>11.784511784511785</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>50</v>
       </c>
@@ -15508,7 +15482,7 @@
         <v>30.68535825545171</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>54</v>
       </c>
@@ -15548,7 +15522,7 @@
         <v>13.381294964028786</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>58</v>
       </c>
@@ -15588,7 +15562,7 @@
         <v>11.43375680580762</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>62</v>
       </c>
@@ -15628,7 +15602,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>66</v>
       </c>
@@ -15668,7 +15642,7 @@
         <v>11.102106969205829</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>70</v>
       </c>
@@ -15708,7 +15682,7 @@
         <v>10.653409090909092</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>98</v>
       </c>
@@ -15748,7 +15722,7 @@
         <v>29.502572898799311</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>102</v>
       </c>
@@ -15786,7 +15760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>106</v>
       </c>
@@ -15826,7 +15800,7 @@
         <v>10.412573673870339</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>86</v>
       </c>
@@ -15866,7 +15840,7 @@
         <v>24.261603375527432</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>90</v>
       </c>
@@ -15906,7 +15880,7 @@
         <v>11.326378539493291</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>94</v>
       </c>
@@ -15946,7 +15920,7 @@
         <v>11.489361702127654</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>201</v>
       </c>
@@ -15986,7 +15960,7 @@
         <v>35.35911602209945</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>565</v>
       </c>
@@ -16026,7 +16000,7 @@
         <v>23.806179775280903</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>568</v>
       </c>
@@ -16066,7 +16040,7 @@
         <v>34.285714285714292</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>571</v>
       </c>
@@ -16106,7 +16080,7 @@
         <v>30.15734265734265</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>575</v>
       </c>
@@ -16146,7 +16120,7 @@
         <v>29.102167182662537</v>
       </c>
     </row>
-    <row r="325" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>579</v>
       </c>
@@ -16182,7 +16156,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>205</v>
       </c>
@@ -16222,7 +16196,7 @@
         <v>31.017369727047157</v>
       </c>
     </row>
-    <row r="327" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>582</v>
       </c>
@@ -16260,7 +16234,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="22">
         <v>589</v>
       </c>
@@ -16298,7 +16272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="22">
         <v>592</v>
       </c>
@@ -16336,7 +16310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="330" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="22">
         <v>595</v>
       </c>
@@ -16374,7 +16348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="22">
         <v>598</v>
       </c>
@@ -16412,7 +16386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>229</v>
       </c>
@@ -16452,7 +16426,7 @@
         <v>28.112449799196781</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>233</v>
       </c>
@@ -16492,7 +16466,7 @@
         <v>27.1356783919598</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>237</v>
       </c>
@@ -16532,7 +16506,7 @@
         <v>48.94629503738954</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>241</v>
       </c>
@@ -16572,7 +16546,7 @@
         <v>35.635179153094455</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>245</v>
       </c>
@@ -16612,7 +16586,7 @@
         <v>38.620689655172413</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>249</v>
       </c>
@@ -16652,7 +16626,7 @@
         <v>49.007046764894298</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>195</v>
       </c>
@@ -16692,7 +16666,7 @@
         <v>27.580893682588599</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>199</v>
       </c>
@@ -16732,7 +16706,7 @@
         <v>25.984251968503941</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>214</v>
       </c>
@@ -16772,7 +16746,7 @@
         <v>38.93491124260354</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>218</v>
       </c>
@@ -16812,7 +16786,7 @@
         <v>34.204275534441805</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>222</v>
       </c>
@@ -16852,7 +16826,7 @@
         <v>44.135338345864668</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>225</v>
       </c>
@@ -16892,7 +16866,7 @@
         <v>58.40927920463961</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>253</v>
       </c>
@@ -16932,7 +16906,7 @@
         <v>28.062827225130892</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>257</v>
       </c>
@@ -16972,7 +16946,7 @@
         <v>48.791208791208788</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>261</v>
       </c>
@@ -17012,7 +16986,7 @@
         <v>36.010830324909747</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>265</v>
       </c>
@@ -17052,7 +17026,7 @@
         <v>34.132231404958681</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>269</v>
       </c>
@@ -17092,7 +17066,7 @@
         <v>46.010638297872333</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>273</v>
       </c>
@@ -17132,7 +17106,7 @@
         <v>50.302297460701325</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>277</v>
       </c>
@@ -17172,7 +17146,7 @@
         <v>30.725190839694662</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>281</v>
       </c>
@@ -17210,7 +17184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>285</v>
       </c>
@@ -17248,7 +17222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>289</v>
       </c>
@@ -17286,7 +17260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>293</v>
       </c>
@@ -17324,7 +17298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>297</v>
       </c>
@@ -17364,7 +17338,7 @@
         <v>45.423728813559322</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>301</v>
       </c>
@@ -17404,7 +17378,7 @@
         <v>28.005657708628011</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>305</v>
       </c>
@@ -17444,7 +17418,7 @@
         <v>27.367205542725177</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>309</v>
       </c>
@@ -17484,7 +17458,7 @@
         <v>36.005625879043606</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>313</v>
       </c>
@@ -17524,7 +17498,7 @@
         <v>27.081138040042152</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>317</v>
       </c>
@@ -17564,7 +17538,7 @@
         <v>46.049896049896041</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>321</v>
       </c>
@@ -17604,7 +17578,7 @@
         <v>37.067545304777596</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>445</v>
       </c>
@@ -17644,7 +17618,7 @@
         <v>25.722145804676742</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>449</v>
       </c>
@@ -17684,7 +17658,7 @@
         <v>34.842249657064471</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>453</v>
       </c>
@@ -17724,7 +17698,7 @@
         <v>35.660091047040964</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>479</v>
       </c>
@@ -17764,7 +17738,7 @@
         <v>27.556109725685786</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>457</v>
       </c>
@@ -17804,7 +17778,7 @@
         <v>29.580838323353291</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>461</v>
       </c>
@@ -17844,7 +17818,7 @@
         <v>22.710622710622715</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>465</v>
       </c>
@@ -17884,7 +17858,7 @@
         <v>35.057244374259767</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>469</v>
       </c>
@@ -17922,7 +17896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>473</v>
       </c>
@@ -17962,7 +17936,7 @@
         <v>25.545339823327922</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>477</v>
       </c>
@@ -18002,7 +17976,7 @@
         <v>31.847296951063282</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>485</v>
       </c>
@@ -18042,7 +18016,7 @@
         <v>39.880123509111826</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>489</v>
       </c>
@@ -18082,7 +18056,7 @@
         <v>29.082774049217004</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>493</v>
       </c>
@@ -18120,7 +18094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>497</v>
       </c>
@@ -18158,7 +18132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>501</v>
       </c>
@@ -18198,7 +18172,7 @@
         <v>33.996937212863713</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>505</v>
       </c>
@@ -18238,7 +18212,7 @@
         <v>25.381414701803052</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>509</v>
       </c>
@@ -18278,7 +18252,7 @@
         <v>30.926083262531851</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>513</v>
       </c>
@@ -18318,7 +18292,7 @@
         <v>25.891616489115332</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>517</v>
       </c>
@@ -18358,7 +18332,7 @@
         <v>18.623481781376515</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>521</v>
       </c>
@@ -18398,7 +18372,7 @@
         <v>22.345247826410056</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>525</v>
       </c>
@@ -18438,7 +18412,7 @@
         <v>48.73193346059449</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>529</v>
       </c>
@@ -18478,7 +18452,7 @@
         <v>30.61951249462761</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>537</v>
       </c>
@@ -18518,7 +18492,7 @@
         <v>35.959704982910594</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>533</v>
       </c>
@@ -18558,7 +18532,7 @@
         <v>30.133741989412094</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>541</v>
       </c>
@@ -18598,7 +18572,7 @@
         <v>2.9191616766466977</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>545</v>
       </c>
@@ -18638,7 +18612,7 @@
         <v>26.993006993007</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>549</v>
       </c>
@@ -18678,7 +18652,7 @@
         <v>33.738384560400291</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>553</v>
       </c>
@@ -18718,7 +18692,7 @@
         <v>38.869504535938596</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>557</v>
       </c>
@@ -18758,7 +18732,7 @@
         <v>42.389155605761083</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>561</v>
       </c>
@@ -18798,7 +18772,7 @@
         <v>32.850416515755164</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>15</v>
       </c>
@@ -18838,7 +18812,7 @@
         <v>21.257485029940121</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>19</v>
       </c>
@@ -18878,7 +18852,7 @@
         <v>16.822429906542066</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>35</v>
       </c>
@@ -18918,7 +18892,7 @@
         <v>10.746812386156645</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>23</v>
       </c>
@@ -18958,7 +18932,7 @@
         <v>26.816239316239315</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>27</v>
       </c>
@@ -18998,7 +18972,7 @@
         <v>16.46039603960396</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>31</v>
       </c>
@@ -19038,7 +19012,7 @@
         <v>10.779816513761471</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>51</v>
       </c>
@@ -19078,7 +19052,7 @@
         <v>19.848612279226248</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>55</v>
       </c>
@@ -19118,7 +19092,7 @@
         <v>12.226512226512218</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>59</v>
       </c>
@@ -19158,7 +19132,7 @@
         <v>11.047345767575317</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>63</v>
       </c>
@@ -19198,7 +19172,7 @@
         <v>30.825022665457841</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>67</v>
       </c>
@@ -19238,7 +19212,7 @@
         <v>20.988900100908172</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>71</v>
       </c>
@@ -19278,7 +19252,7 @@
         <v>10.926694329183956</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>99</v>
       </c>
@@ -19316,7 +19290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>103</v>
       </c>
@@ -19354,7 +19328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>107</v>
       </c>
@@ -19394,7 +19368,7 @@
         <v>11.061946902654867</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>87</v>
       </c>
@@ -19434,7 +19408,7 @@
         <v>29.117379435850776</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>91</v>
       </c>
@@ -19474,7 +19448,7 @@
         <v>16.213275299238298</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>95</v>
       </c>
@@ -19514,7 +19488,7 @@
         <v>11.601513240857503</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>202</v>
       </c>
@@ -19554,7 +19528,7 @@
         <v>38.381937911571029</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>566</v>
       </c>
@@ -19594,7 +19568,7 @@
         <v>38.518518518518526</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>569</v>
       </c>
@@ -19634,7 +19608,7 @@
         <v>31.15264797507788</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>572</v>
       </c>
@@ -19674,7 +19648,7 @@
         <v>31.645569620253163</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>576</v>
       </c>
@@ -19714,7 +19688,7 @@
         <v>33.627118644067806</v>
       </c>
     </row>
-    <row r="415" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>578</v>
       </c>
@@ -19752,7 +19726,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>206</v>
       </c>
@@ -19792,7 +19766,7 @@
         <v>33.0949948927477</v>
       </c>
     </row>
-    <row r="417" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>587</v>
       </c>
@@ -19830,7 +19804,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="418" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>590</v>
       </c>
@@ -19868,7 +19842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="419" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>593</v>
       </c>
@@ -19906,7 +19880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="420" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>596</v>
       </c>
@@ -19944,7 +19918,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="421" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>599</v>
       </c>
@@ -19982,7 +19956,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>530</v>
       </c>
@@ -20022,7 +19996,7 @@
         <v>25.185720859904016</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>234</v>
       </c>
@@ -20062,7 +20036,7 @@
         <v>-74.87179487179489</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>238</v>
       </c>
@@ -20102,7 +20076,7 @@
         <v>45.068664169787759</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>242</v>
       </c>
@@ -20142,7 +20116,7 @@
         <v>52.182163187855778</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>246</v>
       </c>
@@ -20182,7 +20156,7 @@
         <v>39.835916134913404</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>250</v>
       </c>
@@ -20222,7 +20196,7 @@
         <v>42.061855670103085</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>196</v>
       </c>
@@ -20262,7 +20236,7 @@
         <v>27.753934191702434</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>211</v>
       </c>
@@ -20302,7 +20276,7 @@
         <v>24.999999999999996</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>215</v>
       </c>
@@ -20342,7 +20316,7 @@
         <v>56.846153846153847</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>219</v>
       </c>
@@ -20382,7 +20356,7 @@
         <v>26.463414634146332</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>223</v>
       </c>
@@ -20422,7 +20396,7 @@
         <v>29.249448123620315</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>227</v>
       </c>
@@ -20462,7 +20436,7 @@
         <v>60.818253343823756</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>254</v>
       </c>
@@ -20502,7 +20476,7 @@
         <v>29.934640522875817</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>258</v>
       </c>
@@ -20542,7 +20516,7 @@
         <v>33.092783505154635</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>262</v>
       </c>
@@ -20582,7 +20556,7 @@
         <v>47.812500000000007</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>266</v>
       </c>
@@ -20622,7 +20596,7 @@
         <v>32.872928176795575</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>270</v>
       </c>
@@ -20662,7 +20636,7 @@
         <v>41.943957968476361</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>274</v>
       </c>
@@ -20702,7 +20676,7 @@
         <v>41.041162227602904</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>278</v>
       </c>
@@ -20742,7 +20716,7 @@
         <v>23.597122302158279</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>282</v>
       </c>
@@ -20782,7 +20756,7 @@
         <v>26.305792972459635</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>286</v>
       </c>
@@ -20820,7 +20794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>290</v>
       </c>
@@ -20860,7 +20834,7 @@
         <v>31.982942430703631</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>294</v>
       </c>
@@ -20900,7 +20874,7 @@
         <v>32.565284178187412</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>298</v>
       </c>
@@ -20940,7 +20914,7 @@
         <v>53.223140495867774</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>302</v>
       </c>
@@ -20980,7 +20954,7 @@
         <v>29.763560500695419</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>306</v>
       </c>
@@ -21020,7 +20994,7 @@
         <v>41.379310344827594</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>310</v>
       </c>
@@ -21060,7 +21034,7 @@
         <v>45.257903494176368</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>314</v>
       </c>
@@ -21100,7 +21074,7 @@
         <v>34.4559585492228</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>318</v>
       </c>
@@ -21140,7 +21114,7 @@
         <v>47.8328173374613</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>322</v>
       </c>
@@ -21180,7 +21154,7 @@
         <v>37.261503928170598</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>446</v>
       </c>
@@ -21220,7 +21194,7 @@
         <v>24.812967581047374</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>450</v>
       </c>
@@ -21260,7 +21234,7 @@
         <v>27.002583979328165</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>454</v>
       </c>
@@ -21300,7 +21274,7 @@
         <v>23.275862068965512</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>480</v>
       </c>
@@ -21340,7 +21314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>458</v>
       </c>
@@ -21380,7 +21354,7 @@
         <v>31.786074672048436</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>462</v>
       </c>
@@ -21420,7 +21394,7 @@
         <v>34.447674418604649</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>466</v>
       </c>
@@ -21460,7 +21434,7 @@
         <v>23.933209647495364</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>470</v>
       </c>
@@ -21498,7 +21472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>474</v>
       </c>
@@ -21536,7 +21510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>482</v>
       </c>
@@ -21576,7 +21550,7 @@
         <v>34.305659436549497</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>486</v>
       </c>
@@ -21614,7 +21588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>490</v>
       </c>
@@ -21654,7 +21628,7 @@
         <v>35.609243697478988</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>494</v>
       </c>
@@ -21692,7 +21666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>498</v>
       </c>
@@ -21730,7 +21704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>502</v>
       </c>
@@ -21770,7 +21744,7 @@
         <v>25.170068027210888</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>506</v>
       </c>
@@ -21810,7 +21784,7 @@
         <v>29.828171622594912</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>510</v>
       </c>
@@ -21850,7 +21824,7 @@
         <v>31.360510805500986</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>514</v>
       </c>
@@ -21890,7 +21864,7 @@
         <v>38.409502084480451</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>518</v>
       </c>
@@ -21930,7 +21904,7 @@
         <v>41.649899396378274</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>522</v>
       </c>
@@ -21970,7 +21944,7 @@
         <v>30.196683378326266</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>526</v>
       </c>
@@ -22010,7 +21984,7 @@
         <v>38.890162806695713</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>530</v>
       </c>
@@ -22048,7 +22022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>538</v>
       </c>
@@ -22088,7 +22062,7 @@
         <v>41.265556067689467</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>534</v>
       </c>
@@ -22128,7 +22102,7 @@
         <v>52.149229521492302</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>542</v>
       </c>
@@ -22168,7 +22142,7 @@
         <v>43.970510795155334</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>546</v>
       </c>
@@ -22208,7 +22182,7 @@
         <v>26.889106967615305</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>550</v>
       </c>
@@ -22248,7 +22222,7 @@
         <v>60.381012194483695</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>554</v>
       </c>
@@ -22288,7 +22262,7 @@
         <v>34.872501722949693</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>558</v>
       </c>
@@ -22326,7 +22300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>562</v>
       </c>
@@ -22366,7 +22340,7 @@
         <v>31.40311804008909</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>16</v>
       </c>
@@ -22406,7 +22380,7 @@
         <v>19.794050343249435</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>20</v>
       </c>
@@ -22446,7 +22420,7 @@
         <v>13.090909090909092</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>36</v>
       </c>
@@ -22486,7 +22460,7 @@
         <v>11.232876712328759</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>24</v>
       </c>
@@ -22526,7 +22500,7 @@
         <v>29.582577132486389</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>28</v>
       </c>
@@ -22566,7 +22540,7 @@
         <v>18.110236220472441</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>32</v>
       </c>
@@ -22606,7 +22580,7 @@
         <v>10.067114093959736</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>52</v>
       </c>
@@ -22646,7 +22620,7 @@
         <v>22.279792746113991</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>56</v>
       </c>
@@ -22686,7 +22660,7 @@
         <v>13.43490304709141</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>60</v>
       </c>
@@ -22726,7 +22700,7 @@
         <v>11.368015414258203</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>64</v>
       </c>
@@ -22766,7 +22740,7 @@
         <v>25.399495374264099</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>68</v>
       </c>
@@ -22806,7 +22780,7 @@
         <v>11.528822055137853</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>72</v>
       </c>
@@ -22846,7 +22820,7 @@
         <v>10.511627906976752</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>100</v>
       </c>
@@ -22884,7 +22858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>104</v>
       </c>
@@ -22922,7 +22896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>108</v>
       </c>
@@ -22959,7 +22933,7 @@
         <v>-48.516579406631749</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>88</v>
       </c>
@@ -22999,7 +22973,7 @@
         <v>32.468780019212296</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>92</v>
       </c>
@@ -23039,7 +23013,7 @@
         <v>59.335727109515254</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>96</v>
       </c>
@@ -23079,7 +23053,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>203</v>
       </c>
@@ -23119,7 +23093,7 @@
         <v>33.604336043360426</v>
       </c>
     </row>
-    <row r="501" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="24">
         <v>0</v>
       </c>
@@ -23143,7 +23117,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>570</v>
       </c>
@@ -23181,7 +23155,7 @@
         <v>28.8135593220339</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>573</v>
       </c>
@@ -23221,7 +23195,7 @@
         <v>35.140186915887845</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>577</v>
       </c>
@@ -23261,7 +23235,7 @@
         <v>35.192837465564736</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>581</v>
       </c>
@@ -23301,7 +23275,7 @@
         <v>24.1042345276873</v>
       </c>
     </row>
-    <row r="506" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="22">
         <v>207</v>
       </c>
@@ -23341,7 +23315,7 @@
         <v>27.910238429172512</v>
       </c>
     </row>
-    <row r="507" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="22">
         <v>588</v>
       </c>
@@ -23379,7 +23353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="508" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="22">
         <v>591</v>
       </c>
@@ -23417,7 +23391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="509" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="22">
         <v>594</v>
       </c>
@@ -23455,7 +23429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="510" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="22">
         <v>597</v>
       </c>
@@ -23493,7 +23467,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="511" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="22">
         <v>800</v>
       </c>
@@ -23531,7 +23505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>231</v>
       </c>
@@ -23571,7 +23545,7 @@
         <v>30.297723292469353</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>235</v>
       </c>
@@ -23611,7 +23585,7 @@
         <v>25.07068803016022</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>239</v>
       </c>
@@ -23651,7 +23625,7 @@
         <v>30.664062500000007</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>243</v>
       </c>
@@ -23691,7 +23665,7 @@
         <v>33.201892744479487</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>247</v>
       </c>
@@ -23731,7 +23705,7 @@
         <v>36.237471087124142</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>251</v>
       </c>
@@ -23771,7 +23745,7 @@
         <v>37.591911764705884</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>197</v>
       </c>
@@ -23811,7 +23785,7 @@
         <v>31.422505307855626</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>212</v>
       </c>
@@ -23851,7 +23825,7 @@
         <v>25.966850828729282</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>216</v>
       </c>
@@ -23891,7 +23865,7 @@
         <v>53.65448504983388</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>220</v>
       </c>
@@ -23931,7 +23905,7 @@
         <v>31.627906976744185</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>224</v>
       </c>
@@ -23971,7 +23945,7 @@
         <v>42.336448598130836</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>228</v>
       </c>
@@ -24011,7 +23985,7 @@
         <v>48.072383949645953</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>255</v>
       </c>
@@ -24051,7 +24025,7 @@
         <v>27.599999999999998</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>259</v>
       </c>
@@ -24091,7 +24065,7 @@
         <v>29.220779220779221</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>263</v>
       </c>
@@ -24131,7 +24105,7 @@
         <v>41.417092768444121</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>267</v>
       </c>
@@ -24171,7 +24145,7 @@
         <v>34.636871508379897</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>271</v>
       </c>
@@ -24211,7 +24185,7 @@
         <v>30.028328611898015</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>275</v>
       </c>
@@ -24251,7 +24225,7 @@
         <v>46.736842105263158</v>
       </c>
     </row>
-    <row r="530" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="22">
         <v>279</v>
       </c>
@@ -24289,7 +24263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>283</v>
       </c>
@@ -24327,7 +24301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>287</v>
       </c>
@@ -24365,7 +24339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>291</v>
       </c>
@@ -24405,7 +24379,7 @@
         <v>29.498164014687884</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>295</v>
       </c>
@@ -24445,7 +24419,7 @@
         <v>39.481555333997996</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>299</v>
       </c>
@@ -24485,7 +24459,7 @@
         <v>40.336879432624109</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>303</v>
       </c>
@@ -24525,7 +24499,7 @@
         <v>25.433526011560691</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>307</v>
       </c>
@@ -24565,7 +24539,7 @@
         <v>33.184523809523803</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>311</v>
       </c>
@@ -24605,7 +24579,7 @@
         <v>52.442159383033413</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>315</v>
       </c>
@@ -24645,7 +24619,7 @@
         <v>32.346723044397464</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>319</v>
       </c>
@@ -24685,7 +24659,7 @@
         <v>35.660377358490564</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>323</v>
       </c>
@@ -24725,7 +24699,7 @@
         <v>38.088829071332434</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>447</v>
       </c>
@@ -24765,7 +24739,7 @@
         <v>21.377672209026127</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>451</v>
       </c>
@@ -24805,7 +24779,7 @@
         <v>25.762711864406775</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>455</v>
       </c>
@@ -24845,7 +24819,7 @@
         <v>15.536374845869297</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>481</v>
       </c>
@@ -24885,7 +24859,7 @@
         <v>30.008673026886377</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>459</v>
       </c>
@@ -24925,7 +24899,7 @@
         <v>30.269058295964129</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>463</v>
       </c>
@@ -24965,7 +24939,7 @@
         <v>21.234119782214155</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>467</v>
       </c>
@@ -25005,7 +24979,7 @@
         <v>20.076949982511362</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>471</v>
       </c>
@@ -25045,7 +25019,7 @@
         <v>32.894897089270501</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>475</v>
       </c>
@@ -25085,7 +25059,7 @@
         <v>-2.2072936660268625</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>483</v>
       </c>
@@ -25125,7 +25099,7 @@
         <v>53.846153846153847</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>487</v>
       </c>
@@ -25165,7 +25139,7 @@
         <v>21.03424178895877</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>491</v>
       </c>
@@ -25203,7 +25177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>495</v>
       </c>
@@ -25241,7 +25215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>499</v>
       </c>
@@ -25279,7 +25253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>503</v>
       </c>
@@ -25319,7 +25293,7 @@
         <v>46.713080733699293</v>
       </c>
     </row>
-    <row r="557" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="22">
         <v>507</v>
       </c>
@@ -25355,7 +25329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>511</v>
       </c>
@@ -25395,7 +25369,7 @@
         <v>34.246779358105591</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>515</v>
       </c>
@@ -25435,7 +25409,7 @@
         <v>21.439509954058199</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>519</v>
       </c>
@@ -25475,7 +25449,7 @@
         <v>45.312499999999993</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>523</v>
       </c>
@@ -25515,7 +25489,7 @@
         <v>27.072545920313949</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>527</v>
       </c>
@@ -25555,7 +25529,7 @@
         <v>28.412779771057568</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>531</v>
       </c>
@@ -25595,7 +25569,7 @@
         <v>31.671283471837498</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>539</v>
       </c>
@@ -25635,7 +25609,7 @@
         <v>34.546504910456378</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>535</v>
       </c>
@@ -25675,7 +25649,7 @@
         <v>31.697371295419792</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>543</v>
       </c>
@@ -25715,7 +25689,7 @@
         <v>21.234119782214155</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>547</v>
       </c>
@@ -25755,7 +25729,7 @@
         <v>32.313341493268048</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>551</v>
       </c>
@@ -25795,7 +25769,7 @@
         <v>23.185540807681441</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>555</v>
       </c>
@@ -25835,7 +25809,7 @@
         <v>33.479853479853482</v>
       </c>
     </row>
-    <row r="570" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="22">
         <v>559</v>
       </c>
@@ -25871,7 +25845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>563</v>
       </c>
@@ -25911,22 +25885,22 @@
         <v>43.805071030390216</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A572" s="36" t="s">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A572" s="55" t="s">
         <v>791</v>
       </c>
-      <c r="B572" s="36"/>
-      <c r="C572" s="36"/>
-      <c r="D572" s="36"/>
-      <c r="E572" s="36"/>
-      <c r="F572" s="36"/>
-      <c r="G572" s="36"/>
-      <c r="H572" s="36"/>
-      <c r="I572" s="36"/>
-      <c r="J572" s="36"/>
+      <c r="B572" s="55"/>
+      <c r="C572" s="55"/>
+      <c r="D572" s="55"/>
+      <c r="E572" s="55"/>
+      <c r="F572" s="55"/>
+      <c r="G572" s="55"/>
+      <c r="H572" s="55"/>
+      <c r="I572" s="55"/>
+      <c r="J572" s="55"/>
       <c r="K572" s="6"/>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>414</v>
       </c>
@@ -25964,7 +25938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>415</v>
       </c>
@@ -26002,7 +25976,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <v>416</v>
       </c>
@@ -26040,7 +26014,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
         <v>417</v>
       </c>
@@ -26078,7 +26052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
         <v>418</v>
       </c>
@@ -26116,7 +26090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
         <v>419</v>
       </c>
@@ -26154,7 +26128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
         <v>420</v>
       </c>
@@ -26192,7 +26166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="4">
         <v>421</v>
       </c>
@@ -26230,7 +26204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="4">
         <v>422</v>
       </c>
@@ -26268,7 +26242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <v>423</v>
       </c>
@@ -26306,7 +26280,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
         <v>424</v>
       </c>
@@ -26344,7 +26318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
         <v>425</v>
       </c>
@@ -26382,7 +26356,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="4">
         <v>426</v>
       </c>
@@ -26420,7 +26394,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
         <v>427</v>
       </c>
@@ -26458,7 +26432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
         <v>428</v>
       </c>
@@ -26496,7 +26470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
         <v>429</v>
       </c>
@@ -26534,7 +26508,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
         <v>430</v>
       </c>
@@ -26572,7 +26546,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>431</v>
       </c>
@@ -26610,7 +26584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
         <v>432</v>
       </c>
@@ -26648,7 +26622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="4">
         <v>433</v>
       </c>
@@ -26686,7 +26660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
         <v>434</v>
       </c>
@@ -26724,7 +26698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
         <v>435</v>
       </c>
@@ -26762,7 +26736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>436</v>
       </c>
@@ -26800,7 +26774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="4">
         <v>437</v>
       </c>
@@ -26838,7 +26812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="4">
         <v>438</v>
       </c>
@@ -26876,7 +26850,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="4">
         <v>439</v>
       </c>
@@ -26914,7 +26888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="4">
         <v>440</v>
       </c>
@@ -26952,7 +26926,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="4">
         <v>441</v>
       </c>
@@ -26990,7 +26964,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="4">
         <v>442</v>
       </c>
@@ -27028,7 +27002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="4">
         <v>443</v>
       </c>
@@ -27066,7 +27040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="4">
         <v>720</v>
       </c>
@@ -27104,7 +27078,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="4">
         <v>721</v>
       </c>
@@ -27142,7 +27116,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="4">
         <v>722</v>
       </c>
@@ -27180,7 +27154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="4">
         <v>723</v>
       </c>
@@ -27218,7 +27192,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="4">
         <v>724</v>
       </c>
@@ -27256,7 +27230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="4">
         <v>725</v>
       </c>
@@ -27294,7 +27268,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="4">
         <v>726</v>
       </c>
@@ -27332,7 +27306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="4">
         <v>727</v>
       </c>
@@ -27370,7 +27344,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="4">
         <v>728</v>
       </c>
@@ -27408,7 +27382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="4">
         <v>729</v>
       </c>
@@ -27446,7 +27420,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="4">
         <v>730</v>
       </c>
@@ -27484,7 +27458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="4">
         <v>731</v>
       </c>
@@ -27522,7 +27496,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="4">
         <v>732</v>
       </c>
@@ -27560,7 +27534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="4">
         <v>733</v>
       </c>
@@ -27598,7 +27572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="4">
         <v>734</v>
       </c>
@@ -27636,7 +27610,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="4">
         <v>735</v>
       </c>
@@ -27674,7 +27648,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="4">
         <v>736</v>
       </c>
@@ -27712,7 +27686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="4">
         <v>737</v>
       </c>
@@ -27750,7 +27724,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="4">
         <v>738</v>
       </c>
@@ -27788,7 +27762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="4">
         <v>739</v>
       </c>
@@ -27826,7 +27800,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="4">
         <v>740</v>
       </c>
@@ -27864,7 +27838,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="4">
         <v>741</v>
       </c>
@@ -27902,7 +27876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="4">
         <v>742</v>
       </c>
@@ -27940,7 +27914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="4">
         <v>743</v>
       </c>
@@ -27978,7 +27952,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="4">
         <v>744</v>
       </c>
@@ -28016,7 +27990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="4">
         <v>745</v>
       </c>
@@ -28054,7 +28028,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" s="4">
         <v>746</v>
       </c>
@@ -28092,7 +28066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" s="4">
         <v>747</v>
       </c>
@@ -28130,7 +28104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="4">
         <v>748</v>
       </c>
@@ -28168,7 +28142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="4">
         <v>749</v>
       </c>
@@ -28206,7 +28180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="4">
         <v>660</v>
       </c>
@@ -28244,7 +28218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="4">
         <v>661</v>
       </c>
@@ -28282,7 +28256,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="4">
         <v>662</v>
       </c>
@@ -28320,7 +28294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="4">
         <v>663</v>
       </c>
@@ -28358,7 +28332,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="4">
         <v>664</v>
       </c>
@@ -28396,7 +28370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="4">
         <v>665</v>
       </c>
@@ -28434,7 +28408,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="4">
         <v>666</v>
       </c>
@@ -28472,7 +28446,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="4">
         <v>667</v>
       </c>
@@ -28510,7 +28484,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" s="4">
         <v>668</v>
       </c>
@@ -28548,7 +28522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" s="4">
         <v>669</v>
       </c>
@@ -28586,7 +28560,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" s="4">
         <v>670</v>
       </c>
@@ -28624,7 +28598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" s="4">
         <v>671</v>
       </c>
@@ -28662,7 +28636,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" s="4">
         <v>672</v>
       </c>
@@ -28700,7 +28674,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646" s="4">
         <v>673</v>
       </c>
@@ -28738,7 +28712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" s="4">
         <v>674</v>
       </c>
@@ -28776,7 +28750,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" s="4">
         <v>675</v>
       </c>
@@ -28814,7 +28788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" s="4">
         <v>676</v>
       </c>
@@ -28852,7 +28826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" s="4">
         <v>677</v>
       </c>
@@ -28890,7 +28864,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" s="4">
         <v>678</v>
       </c>
@@ -28928,7 +28902,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" s="4">
         <v>679</v>
       </c>
@@ -28966,7 +28940,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" s="4">
         <v>680</v>
       </c>
@@ -29004,7 +28978,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" s="4">
         <v>681</v>
       </c>
@@ -29042,7 +29016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" s="4">
         <v>682</v>
       </c>
@@ -29078,7 +29052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" s="4">
         <v>683</v>
       </c>
@@ -29116,7 +29090,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" s="4">
         <v>684</v>
       </c>
@@ -29154,7 +29128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" s="4">
         <v>685</v>
       </c>
@@ -29192,7 +29166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" s="4">
         <v>686</v>
       </c>
@@ -29228,7 +29202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" s="4">
         <v>687</v>
       </c>
@@ -29266,7 +29240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" s="4">
         <v>688</v>
       </c>
@@ -29304,7 +29278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" s="4">
         <v>689</v>
       </c>
@@ -29340,7 +29314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" s="4">
         <v>690</v>
       </c>
@@ -29378,7 +29352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" s="4">
         <v>691</v>
       </c>
@@ -29416,7 +29390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" s="4">
         <v>692</v>
       </c>
@@ -29454,7 +29428,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" s="4">
         <v>693</v>
       </c>
@@ -29492,7 +29466,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" s="4">
         <v>694</v>
       </c>
@@ -29530,7 +29504,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" s="4">
         <v>695</v>
       </c>
@@ -29568,7 +29542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" s="4">
         <v>696</v>
       </c>
@@ -29606,7 +29580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" s="4">
         <v>697</v>
       </c>
@@ -29644,7 +29618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" s="4">
         <v>698</v>
       </c>
@@ -29682,7 +29656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" s="4">
         <v>699</v>
       </c>
@@ -29720,7 +29694,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673" s="4">
         <v>700</v>
       </c>
@@ -29758,7 +29732,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674" s="4">
         <v>701</v>
       </c>
@@ -29796,7 +29770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" s="4">
         <v>702</v>
       </c>
@@ -29834,7 +29808,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" s="4">
         <v>703</v>
       </c>
@@ -29872,7 +29846,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677" s="4">
         <v>704</v>
       </c>
@@ -29910,7 +29884,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678" s="4">
         <v>705</v>
       </c>
@@ -29948,7 +29922,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679" s="4">
         <v>706</v>
       </c>
@@ -29986,7 +29960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" s="4">
         <v>707</v>
       </c>
@@ -30024,7 +29998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" s="4">
         <v>708</v>
       </c>
@@ -30062,7 +30036,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" s="4">
         <v>709</v>
       </c>
@@ -30100,7 +30074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" s="4">
         <v>710</v>
       </c>
@@ -30138,7 +30112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" s="4">
         <v>711</v>
       </c>
@@ -30176,7 +30150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" s="4">
         <v>712</v>
       </c>
@@ -30214,7 +30188,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" s="4">
         <v>713</v>
       </c>
@@ -30252,7 +30226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687" s="4">
         <v>714</v>
       </c>
@@ -30290,7 +30264,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688" s="4">
         <v>715</v>
       </c>
@@ -30328,7 +30302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689" s="4">
         <v>716</v>
       </c>
@@ -30366,7 +30340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690" s="4">
         <v>717</v>
       </c>
@@ -30404,7 +30378,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691" s="4">
         <v>718</v>
       </c>
@@ -30442,7 +30416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692" s="4">
         <v>719</v>
       </c>
@@ -30480,7 +30454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693" s="4">
         <v>631</v>
       </c>
@@ -30518,7 +30492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694" s="4">
         <v>630</v>
       </c>
@@ -30556,7 +30530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" s="4">
         <v>632</v>
       </c>
@@ -30594,7 +30568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696" s="4">
         <v>633</v>
       </c>
@@ -30632,7 +30606,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697" s="4">
         <v>634</v>
       </c>
@@ -30670,7 +30644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698" s="4">
         <v>635</v>
       </c>
@@ -30708,7 +30682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" s="4">
         <v>637</v>
       </c>
@@ -30746,7 +30720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700" s="4">
         <v>636</v>
       </c>
@@ -30784,7 +30758,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701" s="4">
         <v>638</v>
       </c>
@@ -30822,7 +30796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702" s="4">
         <v>639</v>
       </c>
@@ -30860,7 +30834,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703" s="4">
         <v>640</v>
       </c>
@@ -30898,7 +30872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704" s="4">
         <v>641</v>
       </c>
@@ -30936,7 +30910,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="4">
         <v>643</v>
       </c>
@@ -30974,7 +30948,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="4">
         <v>642</v>
       </c>
@@ -31012,7 +30986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="4">
         <v>644</v>
       </c>
@@ -31050,7 +31024,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="4">
         <v>645</v>
       </c>
@@ -31088,7 +31062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" s="4">
         <v>646</v>
       </c>
@@ -31126,7 +31100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" s="4">
         <v>647</v>
       </c>
@@ -31164,7 +31138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" s="4">
         <v>649</v>
       </c>
@@ -31202,7 +31176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" s="4">
         <v>648</v>
       </c>
@@ -31240,7 +31214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" s="4">
         <v>650</v>
       </c>
@@ -31278,7 +31252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" s="4">
         <v>651</v>
       </c>
@@ -31316,7 +31290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" s="4">
         <v>652</v>
       </c>
@@ -31354,7 +31328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="4">
         <v>653</v>
       </c>
@@ -31392,7 +31366,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="4">
         <v>655</v>
       </c>
@@ -31430,7 +31404,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="4">
         <v>654</v>
       </c>
@@ -31468,7 +31442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" s="4">
         <v>656</v>
       </c>
@@ -31506,7 +31480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" s="4">
         <v>657</v>
       </c>
@@ -31544,7 +31518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721" s="4">
         <v>658</v>
       </c>
@@ -31582,7 +31556,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722" s="4">
         <v>659</v>
       </c>
@@ -31620,7 +31594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723" s="4">
         <v>600</v>
       </c>
@@ -31658,7 +31632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724" s="4">
         <v>601</v>
       </c>
@@ -31696,7 +31670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725" s="4">
         <v>602</v>
       </c>
@@ -31734,7 +31708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726" s="4">
         <v>603</v>
       </c>
@@ -31772,7 +31746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727" s="4">
         <v>604</v>
       </c>
@@ -31810,7 +31784,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" s="4">
         <v>605</v>
       </c>
@@ -31848,7 +31822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729" s="4">
         <v>606</v>
       </c>
@@ -31886,7 +31860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730" s="4">
         <v>607</v>
       </c>
@@ -31924,7 +31898,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731" s="4">
         <v>608</v>
       </c>
@@ -31962,7 +31936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732" s="4">
         <v>609</v>
       </c>
@@ -32000,7 +31974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" s="4">
         <v>610</v>
       </c>
@@ -32038,7 +32012,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734" s="4">
         <v>611</v>
       </c>
@@ -32076,7 +32050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735" s="4">
         <v>612</v>
       </c>
@@ -32114,7 +32088,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736" s="4">
         <v>613</v>
       </c>
@@ -32152,7 +32126,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A737" s="4">
         <v>614</v>
       </c>
@@ -32190,7 +32164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A738" s="4">
         <v>615</v>
       </c>
@@ -32228,7 +32202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A739" s="4">
         <v>616</v>
       </c>
@@ -32266,7 +32240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A740" s="4">
         <v>617</v>
       </c>
@@ -32304,7 +32278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A741" s="4">
         <v>618</v>
       </c>
@@ -32342,7 +32316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A742" s="4">
         <v>619</v>
       </c>
@@ -32380,7 +32354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A743" s="4">
         <v>620</v>
       </c>
@@ -32418,7 +32392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A744" s="4">
         <v>621</v>
       </c>
@@ -32456,7 +32430,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A745" s="4">
         <v>622</v>
       </c>
@@ -32494,7 +32468,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A746" s="4">
         <v>623</v>
       </c>
@@ -32532,10 +32506,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M746" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A747" s="4">
         <v>624</v>
       </c>
@@ -32573,7 +32547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A748" s="4">
         <v>625</v>
       </c>
@@ -32611,7 +32585,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A749" s="4">
         <v>626</v>
       </c>
@@ -32649,7 +32623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A750" s="4">
         <v>627</v>
       </c>
@@ -32687,7 +32661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="751" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="32">
         <v>628</v>
       </c>
@@ -32728,7 +32702,7 @@
         <v>254.9</v>
       </c>
     </row>
-    <row r="752" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A752" s="32">
         <v>629</v>
       </c>
@@ -32766,10 +32740,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M752" s="34" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A753" s="4">
         <v>750</v>
       </c>
@@ -32807,7 +32781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A754" s="4">
         <v>751</v>
       </c>
@@ -32845,7 +32819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A755" s="4">
         <v>752</v>
       </c>
@@ -32883,7 +32857,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A756" s="4">
         <v>753</v>
       </c>
@@ -32921,7 +32895,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A757" s="4">
         <v>754</v>
       </c>
@@ -32959,7 +32933,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A758" s="4">
         <v>755</v>
       </c>
@@ -32997,7 +32971,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A759" s="4">
         <v>756</v>
       </c>
@@ -33035,7 +33009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A760" s="4">
         <v>757</v>
       </c>
@@ -33073,7 +33047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A761" s="4">
         <v>758</v>
       </c>
@@ -33111,7 +33085,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A762" s="4">
         <v>759</v>
       </c>
@@ -33149,7 +33123,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A763" s="4">
         <v>760</v>
       </c>
@@ -33187,7 +33161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A764" s="4">
         <v>761</v>
       </c>
@@ -33225,7 +33199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A765" s="4">
         <v>762</v>
       </c>
@@ -33263,7 +33237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766" s="4">
         <v>763</v>
       </c>
@@ -33301,7 +33275,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A767" s="4">
         <v>764</v>
       </c>
@@ -33339,7 +33313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A768" s="4">
         <v>765</v>
       </c>
@@ -33377,7 +33351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A769" s="4">
         <v>766</v>
       </c>
@@ -33415,7 +33389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A770" s="4">
         <v>767</v>
       </c>
@@ -33453,7 +33427,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A771" s="4">
         <v>768</v>
       </c>
@@ -33491,7 +33465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A772" s="4">
         <v>769</v>
       </c>
@@ -33529,7 +33503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A773" s="4">
         <v>770</v>
       </c>
@@ -33567,7 +33541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A774" s="4">
         <v>771</v>
       </c>
@@ -33605,7 +33579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775" s="4">
         <v>772</v>
       </c>
@@ -33643,7 +33617,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A776" s="4">
         <v>773</v>
       </c>
@@ -33681,7 +33655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A777" s="4">
         <v>774</v>
       </c>
@@ -33719,7 +33693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A778" s="4">
         <v>775</v>
       </c>
@@ -33757,7 +33731,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A779" s="4">
         <v>776</v>
       </c>
@@ -33795,7 +33769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A780" s="4">
         <v>777</v>
       </c>
@@ -33833,7 +33807,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A781" s="4">
         <v>778</v>
       </c>
@@ -33871,7 +33845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782" s="4">
         <v>779</v>
       </c>
@@ -33909,7 +33883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I783" s="25"/>
     </row>
   </sheetData>
@@ -33930,1158 +33904,1158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56F938C-5418-406F-AA91-2003DE33EB04}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G101" sqref="G101:G111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1" s="38">
+        <v>177</v>
+      </c>
+      <c r="C1" s="39">
+        <v>387</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="B1" s="39">
-        <v>177</v>
-      </c>
-      <c r="C1" s="40">
-        <v>387</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>800</v>
-      </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>619</v>
       </c>
-      <c r="F1" s="50">
+      <c r="F1" s="49">
         <v>669</v>
       </c>
       <c r="G1" s="4">
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
         <v>7</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>178</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>388</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="50">
         <v>414</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>620</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="51">
         <v>670</v>
       </c>
       <c r="G2" s="4">
         <v>720</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
         <v>8</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>179</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>389</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="50">
         <v>415</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <v>621</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <v>671</v>
       </c>
       <c r="G3" s="4">
         <v>721</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
         <v>9</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>180</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>390</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <v>416</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <v>622</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <v>672</v>
       </c>
       <c r="G4" s="4">
         <v>722</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>11</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>181</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>391</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="50">
         <v>417</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>623</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="51">
         <v>673</v>
       </c>
       <c r="G5" s="4">
         <v>723</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
         <v>12</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>188</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>392</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="50">
         <v>418</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <v>624</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="51">
         <v>674</v>
       </c>
       <c r="G6" s="4">
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
         <v>43</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>189</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>393</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="50">
         <v>419</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>625</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <v>675</v>
       </c>
       <c r="G7" s="4">
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
         <v>44</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>190</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>394</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="50">
         <v>420</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <v>626</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <v>676</v>
       </c>
       <c r="G8" s="4">
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
         <v>45</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>191</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>395</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="50">
         <v>421</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="47">
         <v>627</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="51">
         <v>677</v>
       </c>
       <c r="G9" s="4">
         <v>727</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
         <v>46</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>192</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>402</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="50">
         <v>422</v>
       </c>
       <c r="E10" s="32">
         <v>628</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <v>678</v>
       </c>
       <c r="G10" s="4">
         <v>728</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>47</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>193</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>403</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="50">
         <v>423</v>
       </c>
       <c r="E11" s="32">
         <v>629</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="51">
         <v>679</v>
       </c>
       <c r="G11" s="4">
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>48</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>330</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>404</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>424</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="47">
         <v>630</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="51">
         <v>680</v>
       </c>
       <c r="G12" s="4">
         <v>730</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
         <v>79</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>331</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>405</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="50">
         <v>425</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="47">
         <v>631</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="51">
         <v>681</v>
       </c>
       <c r="G13" s="4">
         <v>731</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
         <v>80</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>332</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>406</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="50">
         <v>426</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="47">
         <v>632</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="51">
         <v>682</v>
       </c>
       <c r="G14" s="4">
         <v>732</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
         <v>81</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>333</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>407</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="50">
         <v>427</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="47">
         <v>633</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="51">
         <v>683</v>
       </c>
       <c r="G15" s="4">
         <v>733</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
         <v>82</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>334</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>408</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="50">
         <v>428</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="47">
         <v>634</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="51">
         <v>684</v>
       </c>
       <c r="G16" s="4">
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
         <v>83</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>335</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>409</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="50">
         <v>429</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <v>635</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="51">
         <v>685</v>
       </c>
       <c r="G17" s="4">
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
         <v>84</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>336</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>410</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="50">
         <v>430</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="47">
         <v>636</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="51">
         <v>686</v>
       </c>
       <c r="G18" s="4">
         <v>736</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
         <v>115</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>337</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <v>411</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="50">
         <v>431</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="47">
         <v>637</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="51">
         <v>687</v>
       </c>
       <c r="G19" s="4">
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
         <v>116</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>338</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>412</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="50">
         <v>432</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="47">
         <v>638</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="51">
         <v>688</v>
       </c>
       <c r="G20" s="4">
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
         <v>117</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>339</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="41">
         <v>413</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="50">
         <v>433</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="47">
         <v>639</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="51">
         <v>689</v>
       </c>
       <c r="G21" s="4">
         <v>739</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
         <v>118</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>340</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="51">
+      <c r="C22" s="42"/>
+      <c r="D22" s="50">
         <v>434</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="47">
         <v>640</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="51">
         <v>690</v>
       </c>
       <c r="G22" s="4">
         <v>740</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
         <v>119</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>341</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="51">
+      <c r="C23" s="42"/>
+      <c r="D23" s="50">
         <v>435</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="47">
         <v>641</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="51">
         <v>691</v>
       </c>
       <c r="G23" s="4">
         <v>741</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
         <v>120</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>348</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="51">
+      <c r="C24" s="42"/>
+      <c r="D24" s="50">
         <v>436</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="47">
         <v>642</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="51">
         <v>692</v>
       </c>
       <c r="G24" s="4">
         <v>742</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
         <v>127</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>349</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="51">
+      <c r="C25" s="42"/>
+      <c r="D25" s="50">
         <v>437</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="47">
         <v>643</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="51">
         <v>693</v>
       </c>
       <c r="G25" s="4">
         <v>743</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
         <v>128</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>350</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="51">
+      <c r="C26" s="42"/>
+      <c r="D26" s="50">
         <v>438</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="47">
         <v>644</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="51">
         <v>694</v>
       </c>
       <c r="G26" s="4">
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="41">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
         <v>129</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="36">
         <v>351</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="51">
+      <c r="C27" s="42"/>
+      <c r="D27" s="50">
         <v>439</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="47">
         <v>645</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="51">
         <v>695</v>
       </c>
       <c r="G27" s="4">
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
         <v>130</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>352</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="51">
+      <c r="C28" s="42"/>
+      <c r="D28" s="50">
         <v>440</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="47">
         <v>646</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="51">
         <v>696</v>
       </c>
       <c r="G28" s="4">
         <v>746</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="41">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
         <v>131</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>353</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="51">
+      <c r="C29" s="42"/>
+      <c r="D29" s="50">
         <v>441</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="47">
         <v>647</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="51">
         <v>697</v>
       </c>
       <c r="G29" s="4">
         <v>747</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
         <v>132</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>354</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="51">
+      <c r="C30" s="42"/>
+      <c r="D30" s="50">
         <v>442</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="47">
         <v>648</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="51">
         <v>698</v>
       </c>
       <c r="G30" s="4">
         <v>748</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="41">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
         <v>133</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>355</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="51">
+      <c r="C31" s="42"/>
+      <c r="D31" s="50">
         <v>443</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="47">
         <v>649</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="51">
         <v>699</v>
       </c>
       <c r="G31" s="4">
         <v>749</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
         <v>140</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>356</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="51">
+      <c r="C32" s="42"/>
+      <c r="D32" s="50">
         <v>600</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="47">
         <v>650</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="51">
         <v>700</v>
       </c>
       <c r="G32" s="4">
         <v>750</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="41">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
         <v>141</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>357</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="51">
+      <c r="C33" s="42"/>
+      <c r="D33" s="50">
         <v>601</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="47">
         <v>651</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="51">
         <v>701</v>
       </c>
       <c r="G33" s="4">
         <v>751</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="41">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
         <v>142</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>358</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="51">
+      <c r="C34" s="42"/>
+      <c r="D34" s="50">
         <v>602</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="47">
         <v>652</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="51">
         <v>702</v>
       </c>
       <c r="G34" s="4">
         <v>752</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="41">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
         <v>143</v>
       </c>
       <c r="B35" s="22">
         <v>359</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="51">
+      <c r="C35" s="42"/>
+      <c r="D35" s="50">
         <v>603</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="47">
         <v>653</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="51">
         <v>703</v>
       </c>
       <c r="G35" s="4">
         <v>753</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="41">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
         <v>144</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>366</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="51">
+      <c r="C36" s="42"/>
+      <c r="D36" s="50">
         <v>604</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="47">
         <v>654</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="51">
         <v>704</v>
       </c>
       <c r="G36" s="4">
         <v>754</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="41">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
         <v>145</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>367</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="51">
+      <c r="C37" s="42"/>
+      <c r="D37" s="50">
         <v>605</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="47">
         <v>655</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="51">
         <v>705</v>
       </c>
       <c r="G37" s="4">
         <v>755</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="41">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
         <v>152</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>368</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="51">
+      <c r="C38" s="42"/>
+      <c r="D38" s="50">
         <v>606</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="47">
         <v>656</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="51">
         <v>706</v>
       </c>
       <c r="G38" s="4">
         <v>756</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="41">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
         <v>153</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="36">
         <v>369</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="51">
+      <c r="C39" s="42"/>
+      <c r="D39" s="50">
         <v>607</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="47">
         <v>657</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="51">
         <v>707</v>
       </c>
       <c r="G39" s="4">
         <v>757</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="41">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
         <v>154</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="36">
         <v>370</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="51">
+      <c r="C40" s="42"/>
+      <c r="D40" s="50">
         <v>608</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="47">
         <v>658</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="51">
         <v>708</v>
       </c>
       <c r="G40" s="4">
         <v>758</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
         <v>155</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="36">
         <v>371</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="51">
+      <c r="C41" s="42"/>
+      <c r="D41" s="50">
         <v>609</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="47">
         <v>659</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="51">
         <v>709</v>
       </c>
       <c r="G41" s="4">
         <v>759</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
         <v>156</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>372</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="51">
+      <c r="C42" s="42"/>
+      <c r="D42" s="50">
         <v>610</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="47">
         <v>660</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="51">
         <v>710</v>
       </c>
       <c r="G42" s="4">
         <v>760</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="41">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
         <v>157</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="36">
         <v>373</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="51">
+      <c r="C43" s="42"/>
+      <c r="D43" s="50">
         <v>611</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="47">
         <v>661</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="51">
         <v>711</v>
       </c>
       <c r="G43" s="4">
         <v>761</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
         <v>164</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="36">
         <v>374</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="51">
+      <c r="C44" s="42"/>
+      <c r="D44" s="50">
         <v>612</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="47">
         <v>662</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="51">
         <v>712</v>
       </c>
       <c r="G44" s="4">
         <v>762</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="41">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
         <v>165</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="36">
         <v>375</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="51">
+      <c r="C45" s="42"/>
+      <c r="D45" s="50">
         <v>613</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="47">
         <v>663</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="51">
         <v>713</v>
       </c>
       <c r="G45" s="4">
         <v>763</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="41">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
         <v>166</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="36">
         <v>376</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="51">
+      <c r="C46" s="42"/>
+      <c r="D46" s="50">
         <v>614</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="47">
         <v>664</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="51">
         <v>714</v>
       </c>
       <c r="G46" s="4">
         <v>764</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="41">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
         <v>167</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="36">
         <v>377</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="51">
+      <c r="C47" s="42"/>
+      <c r="D47" s="50">
         <v>615</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="47">
         <v>665</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="51">
         <v>715</v>
       </c>
       <c r="G47" s="4">
         <v>765</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
         <v>168</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="36">
         <v>384</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="51">
+      <c r="C48" s="42"/>
+      <c r="D48" s="50">
         <v>616</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="47">
         <v>666</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="51">
         <v>716</v>
       </c>
       <c r="G48" s="4">
         <v>766</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="41">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
         <v>169</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="36">
         <v>385</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="51">
+      <c r="C49" s="42"/>
+      <c r="D49" s="50">
         <v>617</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="47">
         <v>667</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="51">
         <v>717</v>
       </c>
       <c r="G49" s="4">
         <v>767</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="45">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44">
         <v>176</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="45">
         <v>386</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="53">
+      <c r="C50" s="46"/>
+      <c r="D50" s="52">
         <v>618</v>
       </c>
-      <c r="E50" s="54">
+      <c r="E50" s="53">
         <v>668</v>
       </c>
-      <c r="F50" s="55">
+      <c r="F50" s="54">
         <v>718</v>
       </c>
       <c r="G50" s="4">
         <v>768</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" s="4">
         <v>769</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="4">
         <v>770</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="4">
         <v>771</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="4">
         <v>772</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="4">
         <v>773</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" s="4">
         <v>774</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" s="4">
         <v>775</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" s="4">
         <v>776</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" s="4">
         <v>777</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="4">
         <v>778</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" s="4">
         <v>779</v>
       </c>
